--- a/nmadb/501204.xlsx
+++ b/nmadb/501204.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="195" windowWidth="16155" windowHeight="10050"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -20,7 +20,7 @@
     <author>Patricia Rios</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -33,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0">
+    <comment ref="E38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0">
+    <comment ref="E42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Fagon</t>
   </si>
   <si>
-    <t>tx</t>
-  </si>
-  <si>
     <t>complicated skin and soft-tissue infection (cSSTI) studies</t>
   </si>
   <si>
@@ -202,13 +199,19 @@
   </si>
   <si>
     <t>Quinupristin/Dalfopristin</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>NR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -323,13 +326,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,7 +356,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -427,7 +430,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -462,7 +464,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,14 +639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
     <col min="2" max="2" width="26.5703125" style="7" bestFit="1" customWidth="1"/>
@@ -655,18 +656,18 @@
     <col min="11" max="11" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="15">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>1</v>
@@ -695,776 +696,863 @@
       <c r="T1" s="3"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="I2" s="16" t="s">
+    <row r="2" spans="1:21" ht="15">
+      <c r="A2" s="7">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>223</v>
+      </c>
+      <c r="F2" s="7">
+        <v>276</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="17">
-        <v>1</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="16">
+        <v>1</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
+    <row r="3" spans="1:21">
+      <c r="B3" s="8"/>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>196</v>
+      </c>
+      <c r="F3" s="7">
+        <v>266</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
-        <v>223</v>
-      </c>
-      <c r="F3" s="7">
-        <v>276</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17">
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="7">
+        <v>2008</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
       <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>196</v>
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>31</v>
       </c>
       <c r="F4" s="7">
-        <v>266</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17">
+        <v>33</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16">
         <v>3</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
+    <row r="5" spans="1:21">
+      <c r="B5" s="8"/>
       <c r="C5" s="8">
         <v>2</v>
       </c>
       <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7">
+        <v>29</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16">
+        <v>4</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="7">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="8">
-        <v>31</v>
-      </c>
-      <c r="F5" s="7">
-        <v>33</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17">
-        <v>4</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>19</v>
+      <c r="E6" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F6" s="7">
-        <v>29</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17">
+        <v>51</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16">
         <v>5</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>2007</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
+    <row r="7" spans="1:21">
+      <c r="B7" s="8"/>
       <c r="C7" s="8">
         <v>3</v>
       </c>
       <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="7">
+        <v>26</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16">
+        <v>6</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="7">
+        <v>2005</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7">
-        <v>51</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17">
-        <v>6</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8">
-        <v>1</v>
+      <c r="E8" s="8">
+        <v>439</v>
       </c>
       <c r="F8" s="7">
-        <v>26</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17">
+        <v>583</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16">
         <v>7</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="K8" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="B9" s="8"/>
       <c r="C9" s="8">
         <v>4</v>
       </c>
       <c r="D9" s="8">
-        <v>2</v>
-      </c>
-      <c r="E9" s="8">
-        <v>439</v>
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>402</v>
       </c>
       <c r="F9" s="7">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+    <row r="10" spans="1:21">
+      <c r="A10" s="7">
+        <v>2002</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5</v>
+      </c>
       <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>402</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>64</v>
       </c>
       <c r="F10" s="7">
-        <v>573</v>
+        <v>99</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>2002</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
+    <row r="11" spans="1:21">
+      <c r="B11" s="8"/>
       <c r="C11" s="8">
         <v>5</v>
       </c>
       <c r="D11" s="8">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>54</v>
       </c>
       <c r="F11" s="7">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="7">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6</v>
+      </c>
       <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="E12" s="8">
+        <v>36</v>
       </c>
       <c r="F12" s="7">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>2008</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>19</v>
-      </c>
+    <row r="13" spans="1:21">
+      <c r="B13" s="8"/>
       <c r="C13" s="8">
         <v>6</v>
       </c>
       <c r="D13" s="8">
-        <v>3</v>
-      </c>
-      <c r="E13" s="8">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>42</v>
       </c>
       <c r="F13" s="7">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="G13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8">
+        <v>7</v>
+      </c>
       <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="E14" s="8">
+        <v>165</v>
       </c>
       <c r="F14" s="7">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="B15" s="8"/>
       <c r="C15" s="8">
         <v>7</v>
       </c>
       <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>162</v>
+      </c>
+      <c r="F15" s="7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8">
         <v>3</v>
       </c>
-      <c r="E15" s="8">
-        <v>165</v>
-      </c>
-      <c r="F15" s="7">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>162</v>
+      <c r="E16" s="8">
+        <v>217</v>
       </c>
       <c r="F16" s="7">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>23</v>
-      </c>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="8"/>
       <c r="C17" s="8">
         <v>8</v>
       </c>
       <c r="D17" s="8">
-        <v>3</v>
-      </c>
-      <c r="E17" s="8">
-        <v>217</v>
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>235</v>
       </c>
       <c r="F17" s="7">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7">
+        <v>2008</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="8">
+        <v>9</v>
+      </c>
       <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>235</v>
+        <v>4</v>
+      </c>
+      <c r="E18" s="8">
+        <v>55</v>
       </c>
       <c r="F18" s="7">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>2008</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>24</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="8"/>
       <c r="C19" s="8">
         <v>9</v>
       </c>
       <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7">
+        <v>2005</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8">
         <v>4</v>
       </c>
-      <c r="E19" s="8">
-        <v>55</v>
-      </c>
-      <c r="F19" s="7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>20</v>
+      <c r="E20" s="8">
+        <v>212</v>
       </c>
       <c r="F20" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>2005</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="8"/>
       <c r="C21" s="8">
         <v>10</v>
       </c>
       <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>216</v>
+      </c>
+      <c r="F21" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="7">
+        <v>2005</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="8">
+        <v>11</v>
+      </c>
+      <c r="D22" s="8">
         <v>4</v>
       </c>
-      <c r="E21" s="8">
-        <v>212</v>
-      </c>
-      <c r="F21" s="7">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
-        <v>216</v>
+      <c r="E22" s="8">
+        <v>203</v>
       </c>
       <c r="F22" s="7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>2005</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="8"/>
       <c r="C23" s="8">
         <v>11</v>
       </c>
       <c r="D23" s="8">
-        <v>4</v>
-      </c>
-      <c r="E23" s="8">
-        <v>203</v>
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>196</v>
       </c>
       <c r="F23" s="7">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="8">
+        <v>12</v>
+      </c>
       <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
-        <v>196</v>
+        <v>5</v>
+      </c>
+      <c r="E24" s="8">
+        <v>309</v>
       </c>
       <c r="F24" s="7">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>30</v>
-      </c>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="8"/>
       <c r="C25" s="8">
         <v>12</v>
       </c>
       <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>307</v>
+      </c>
+      <c r="F25" s="7">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="8">
+        <v>13</v>
+      </c>
+      <c r="D26" s="8">
         <v>5</v>
       </c>
-      <c r="E25" s="8">
-        <v>309</v>
-      </c>
-      <c r="F25" s="7">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7">
-        <v>307</v>
+      <c r="E26" s="8">
+        <v>348</v>
       </c>
       <c r="F26" s="7">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="8"/>
       <c r="C27" s="8">
         <v>13</v>
       </c>
       <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>360</v>
+      </c>
+      <c r="F27" s="7">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="8">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8">
         <v>5</v>
       </c>
-      <c r="E27" s="8">
-        <v>348</v>
-      </c>
-      <c r="F27" s="7">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7">
-        <v>360</v>
+      <c r="E28" s="8">
+        <v>82</v>
       </c>
       <c r="F28" s="7">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="8"/>
       <c r="C29" s="8">
         <v>14</v>
       </c>
       <c r="D29" s="8">
-        <v>5</v>
-      </c>
-      <c r="E29" s="8">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>81</v>
       </c>
       <c r="F29" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="7">
+        <v>2010</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="8">
+        <v>15</v>
+      </c>
       <c r="D30" s="8">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7">
-        <v>81</v>
+        <v>6</v>
+      </c>
+      <c r="E30" s="8">
+        <v>304</v>
       </c>
       <c r="F30" s="7">
-        <v>95</v>
+        <v>351</v>
       </c>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>32</v>
-      </c>
+    <row r="31" spans="1:10">
+      <c r="B31" s="8"/>
       <c r="C31" s="8">
         <v>15</v>
       </c>
       <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>297</v>
+      </c>
+      <c r="F31" s="7">
+        <v>347</v>
+      </c>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="7">
+        <v>2010</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="8">
+        <v>16</v>
+      </c>
+      <c r="D32" s="8">
         <v>6</v>
       </c>
-      <c r="E31" s="8">
-        <v>304</v>
-      </c>
-      <c r="F31" s="7">
-        <v>351</v>
-      </c>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
-        <v>297</v>
+      <c r="E32" s="8">
+        <v>291</v>
       </c>
       <c r="F32" s="7">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>33</v>
-      </c>
+    <row r="33" spans="1:18">
+      <c r="B33" s="8"/>
       <c r="C33" s="8">
         <v>16</v>
       </c>
       <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>289</v>
+      </c>
+      <c r="F33" s="7">
+        <v>338</v>
+      </c>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="7">
+        <v>2007</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="8">
+        <v>17</v>
+      </c>
+      <c r="D34" s="8">
         <v>6</v>
       </c>
-      <c r="E33" s="8">
-        <v>291</v>
-      </c>
-      <c r="F33" s="7">
-        <v>342</v>
-      </c>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7">
-        <v>289</v>
+      <c r="E34" s="8">
+        <v>59</v>
       </c>
       <c r="F34" s="7">
-        <v>338</v>
+        <v>67</v>
       </c>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>2007</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>34</v>
-      </c>
+    <row r="35" spans="1:18">
+      <c r="B35" s="8"/>
       <c r="C35" s="8">
         <v>17</v>
       </c>
       <c r="D35" s="8">
-        <v>6</v>
-      </c>
-      <c r="E35" s="8">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="7">
+        <v>26</v>
       </c>
       <c r="F35" s="7">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+    <row r="36" spans="1:18">
+      <c r="A36" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8">
+        <v>18</v>
+      </c>
       <c r="D36" s="8">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="E36" s="8">
+        <v>102</v>
       </c>
       <c r="F36" s="7">
-        <v>32</v>
-      </c>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+        <v>186</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8">
+        <v>18</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <v>92</v>
+      </c>
+      <c r="F37" s="7">
+        <v>205</v>
+      </c>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" s="7">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="8">
         <v>2</v>
       </c>
-      <c r="E38" s="8">
-        <v>102</v>
+      <c r="E38" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F38" s="7">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="C39" s="8">
+        <v>19</v>
+      </c>
       <c r="D39" s="8">
         <v>1</v>
       </c>
-      <c r="E39" s="7">
-        <v>92</v>
+      <c r="E39" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F39" s="7">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" s="7">
         <v>2008</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C40" s="8">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D40" s="8">
         <v>2</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="8">
+        <v>22</v>
+      </c>
       <c r="F40" s="7">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="C41" s="8">
+        <v>2</v>
+      </c>
       <c r="D41" s="8">
         <v>1</v>
       </c>
+      <c r="E41" s="7">
+        <v>18</v>
+      </c>
       <c r="F41" s="7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" s="7">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C42" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="8">
         <v>2</v>
       </c>
-      <c r="E42" s="8">
-        <v>22</v>
+      <c r="E42" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F42" s="7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="C43" s="8">
+        <v>3</v>
+      </c>
       <c r="D43" s="8">
         <v>1</v>
       </c>
-      <c r="E43" s="7">
-        <v>18</v>
+      <c r="E43" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F43" s="7">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" s="7">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C44" s="8">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D44" s="8">
         <v>2</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="8">
+        <v>135</v>
+      </c>
       <c r="F44" s="7">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+      <c r="C45" s="8">
+        <v>20</v>
+      </c>
       <c r="D45" s="8">
         <v>1</v>
       </c>
+      <c r="E45" s="7">
+        <v>128</v>
+      </c>
       <c r="F45" s="7">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="J45" s="7"/>
       <c r="N45" s="10"/>
@@ -1473,24 +1561,24 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" s="7">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C46" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D46" s="8">
         <v>2</v>
       </c>
       <c r="E46" s="8">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="F46" s="7">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="J46" s="7"/>
       <c r="N46" s="10"/>
@@ -1499,17 +1587,19 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="15">
       <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+      <c r="C47" s="8">
+        <v>5</v>
+      </c>
       <c r="D47" s="8">
         <v>1</v>
       </c>
       <c r="E47" s="7">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="F47" s="7">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="J47" s="7"/>
       <c r="N47" s="13"/>
@@ -1518,24 +1608,24 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="15">
       <c r="A48" s="7">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C48" s="8">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D48" s="8">
         <v>2</v>
       </c>
       <c r="E48" s="8">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="F48" s="7">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="J48" s="7"/>
       <c r="N48" s="13"/>
@@ -1544,17 +1634,19 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+      <c r="C49" s="8">
+        <v>21</v>
+      </c>
       <c r="D49" s="8">
         <v>1</v>
       </c>
       <c r="E49" s="7">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="F49" s="7">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="J49" s="7"/>
       <c r="N49" s="10"/>
@@ -1563,24 +1655,24 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" s="7">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D50" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E50" s="8">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="F50" s="7">
-        <v>203</v>
+        <v>372</v>
       </c>
       <c r="J50" s="7"/>
       <c r="N50" s="10"/>
@@ -1589,17 +1681,19 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+      <c r="C51" s="8">
+        <v>22</v>
+      </c>
       <c r="D51" s="8">
         <v>1</v>
       </c>
       <c r="E51" s="7">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="F51" s="7">
-        <v>192</v>
+        <v>374</v>
       </c>
       <c r="J51" s="7"/>
       <c r="N51" s="10"/>
@@ -1608,24 +1702,24 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" s="7">
         <v>2011</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C52" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D52" s="8">
         <v>5</v>
       </c>
       <c r="E52" s="8">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="F52" s="7">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="J52" s="7"/>
       <c r="N52" s="10"/>
@@ -1634,17 +1728,19 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+      <c r="C53" s="8">
+        <v>23</v>
+      </c>
       <c r="D53" s="8">
         <v>1</v>
       </c>
       <c r="E53" s="7">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F53" s="7">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="J53" s="7"/>
       <c r="N53" s="10"/>
@@ -1653,24 +1749,24 @@
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" s="7">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C54" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D54" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E54" s="8">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c r="F54" s="7">
-        <v>377</v>
+        <v>150</v>
       </c>
       <c r="J54" s="7"/>
       <c r="N54" s="10"/>
@@ -1679,17 +1775,19 @@
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8">
+      <c r="C55" s="8">
+        <v>24</v>
+      </c>
+      <c r="D55" s="7">
         <v>1</v>
       </c>
       <c r="E55" s="7">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="F55" s="7">
-        <v>380</v>
+        <v>148</v>
       </c>
       <c r="J55" s="7"/>
       <c r="N55" s="10"/>
@@ -1698,25 +1796,7 @@
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="8">
-        <v>24</v>
-      </c>
-      <c r="D56" s="8">
-        <v>7</v>
-      </c>
-      <c r="E56" s="8">
-        <v>65</v>
-      </c>
-      <c r="F56" s="7">
-        <v>150</v>
-      </c>
+    <row r="56" spans="1:18">
       <c r="J56" s="7"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -1724,137 +1804,126 @@
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="7">
-        <v>1</v>
-      </c>
-      <c r="E57" s="7">
-        <v>67</v>
-      </c>
-      <c r="F57" s="7">
-        <v>148</v>
-      </c>
+    <row r="57" spans="1:18">
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="B58" s="8"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="B59" s="8"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="B60" s="8"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="B61" s="8"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="B62" s="8"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="B63" s="8"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="B64" s="8"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10">
       <c r="B65" s="8"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10">
       <c r="B66" s="8"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10">
       <c r="B67" s="8"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10">
       <c r="B68" s="8"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10">
       <c r="B69" s="8"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:10">
       <c r="B70" s="8"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:10">
       <c r="B71" s="8"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10">
       <c r="B72" s="8"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:10">
       <c r="B73" s="8"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10">
       <c r="B74" s="8"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10">
       <c r="B75" s="8"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:10">
       <c r="B76" s="8"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:10">
       <c r="B77" s="8"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10">
       <c r="B78" s="8"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:10">
       <c r="B79" s="8"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:10">
       <c r="B80" s="8"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:10">
       <c r="B81" s="8"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:10">
       <c r="B82" s="8"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:10">
       <c r="B83" s="8"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:10" ht="15">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
     </row>
-    <row r="85" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:10" ht="15">
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
-    <row r="86" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:10" ht="15">
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -1863,11 +1932,11 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="G36:L36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="E38:F57 E1:F1 E3:F36">
+  <conditionalFormatting sqref="E1:F55">
     <cfRule type="containsBlanks" dxfId="0" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(E1))=0</formula>
     </cfRule>
@@ -1880,12 +1949,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
